--- a/data/ratings_Brasileirao.xlsx
+++ b/data/ratings_Brasileirao.xlsx
@@ -943,12 +943,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.67</t>
+          <t>7.63</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -1177,12 +1177,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.52</t>
+          <t>7.53</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>

--- a/data/ratings_Brasileirao.xlsx
+++ b/data/ratings_Brasileirao.xlsx
@@ -943,12 +943,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7.63</t>
+          <t>7.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
@@ -1060,12 +1060,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.58</t>
+          <t>7.54</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -1167,22 +1167,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>K. Jorge</t>
+          <t>Walter</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.53</t>
+          <t>7.41</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -1294,7 +1294,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1401,22 +1401,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>J. Capixaba</t>
+          <t>K. Jorge</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R. B. Bragantino</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.31</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
